--- a/Kode/Server2/Logs/lora_node3/2020-05-21.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-21.xlsx
@@ -1583,7 +1583,7 @@
         <v>77.235</v>
       </c>
       <c r="F61" t="n">
-        <v>181.96566</v>
+        <v>181965.66</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1603,7 @@
         <v>72.61499999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>164.1099</v>
+        <v>164109.9</v>
       </c>
     </row>
     <row r="63">
@@ -1623,7 +1623,7 @@
         <v>67.515</v>
       </c>
       <c r="F63" t="n">
-        <v>149.61324</v>
+        <v>149613.24</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1643,7 @@
         <v>66.105</v>
       </c>
       <c r="F64" t="n">
-        <v>145.95984</v>
+        <v>145959.84</v>
       </c>
     </row>
     <row r="65">
@@ -1663,7 +1663,7 @@
         <v>63.9</v>
       </c>
       <c r="F65" t="n">
-        <v>140.58</v>
+        <v>140580</v>
       </c>
     </row>
     <row r="66">
@@ -1683,7 +1683,7 @@
         <v>62.925</v>
       </c>
       <c r="F66" t="n">
-        <v>138.6867</v>
+        <v>138686.7</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>55.98</v>
       </c>
       <c r="F67" t="n">
-        <v>122.48424</v>
+        <v>122484.24</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>50.79</v>
       </c>
       <c r="F68" t="n">
-        <v>111.53484</v>
+        <v>111534.84</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>64.155</v>
       </c>
       <c r="F69" t="n">
-        <v>141.65424</v>
+        <v>141654.24</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>64.95</v>
       </c>
       <c r="F70" t="n">
-        <v>143.1498</v>
+        <v>143149.8</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>62.265</v>
       </c>
       <c r="F71" t="n">
-        <v>137.48112</v>
+        <v>137481.12</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>57.03</v>
       </c>
       <c r="F72" t="n">
-        <v>123.1848</v>
+        <v>123184.8</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>49.44</v>
       </c>
       <c r="F73" t="n">
-        <v>108.768</v>
+        <v>108768</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>58.08</v>
       </c>
       <c r="F74" t="n">
-        <v>127.54368</v>
+        <v>127543.68</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>44.48999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>85.77671999999998</v>
+        <v>85776.71999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>44.445</v>
       </c>
       <c r="F76" t="n">
-        <v>97.24566000000002</v>
+        <v>97245.66000000002</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>49.35</v>
       </c>
       <c r="F77" t="n">
-        <v>107.9778</v>
+        <v>107977.8</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>55.995</v>
       </c>
       <c r="F78" t="n">
-        <v>123.189</v>
+        <v>123189</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>39.45</v>
       </c>
       <c r="F79" t="n">
-        <v>86.31659999999999</v>
+        <v>86316.59999999999</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>44.37</v>
       </c>
       <c r="F80" t="n">
-        <v>96.7266</v>
+        <v>96726.60000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>46.335</v>
       </c>
       <c r="F81" t="n">
-        <v>101.38098</v>
+        <v>101380.98</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>44.88</v>
       </c>
       <c r="F82" t="n">
-        <v>98.37696</v>
+        <v>98376.95999999999</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>45.12</v>
       </c>
       <c r="F83" t="n">
-        <v>98.90304</v>
+        <v>98903.04000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>54.945</v>
       </c>
       <c r="F84" t="n">
-        <v>120.879</v>
+        <v>120879</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>63.84</v>
       </c>
       <c r="F85" t="n">
-        <v>140.95872</v>
+        <v>140958.72</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>61.44</v>
       </c>
       <c r="F86" t="n">
-        <v>135.168</v>
+        <v>135168</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>44.955</v>
       </c>
       <c r="F87" t="n">
-        <v>98.18172</v>
+        <v>98181.72</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>62.29499999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>138.79326</v>
+        <v>138793.26</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>44.86499999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>98.16462</v>
+        <v>98164.62</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>41.505</v>
       </c>
       <c r="F90" t="n">
-        <v>90.81294</v>
+        <v>90812.94</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>50.685</v>
       </c>
       <c r="F91" t="n">
-        <v>111.91248</v>
+        <v>111912.48</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>40.755</v>
       </c>
       <c r="F92" t="n">
-        <v>89.17193999999999</v>
+        <v>89171.93999999999</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>45.98999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>100.99404</v>
+        <v>100994.04</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>50.55</v>
       </c>
       <c r="F94" t="n">
-        <v>111.21</v>
+        <v>111210</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>49.035</v>
       </c>
       <c r="F95" t="n">
-        <v>107.48472</v>
+        <v>107484.72</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>48.375</v>
       </c>
       <c r="F96" t="n">
-        <v>106.038</v>
+        <v>106038</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>46.5</v>
       </c>
       <c r="F97" t="n">
-        <v>101.742</v>
+        <v>101742</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>40.83</v>
       </c>
       <c r="F98" t="n">
-        <v>89.33604</v>
+        <v>89336.03999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>48.285</v>
       </c>
       <c r="F99" t="n">
-        <v>105.64758</v>
+        <v>105647.58</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>45.255</v>
       </c>
       <c r="F100" t="n">
-        <v>99.37998</v>
+        <v>99379.98000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>45.39</v>
       </c>
       <c r="F101" t="n">
-        <v>99.31332</v>
+        <v>99313.32000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>49.245</v>
       </c>
       <c r="F102" t="n">
-        <v>107.94504</v>
+        <v>107945.04</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>49.44</v>
       </c>
       <c r="F103" t="n">
-        <v>108.37248</v>
+        <v>108372.48</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>52.815</v>
       </c>
       <c r="F104" t="n">
-        <v>116.193</v>
+        <v>116193</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>52.065</v>
       </c>
       <c r="F105" t="n">
-        <v>114.75126</v>
+        <v>114751.26</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>46.455</v>
       </c>
       <c r="F106" t="n">
-        <v>101.82936</v>
+        <v>101829.36</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>43.005</v>
       </c>
       <c r="F107" t="n">
-        <v>94.09493999999999</v>
+        <v>94094.93999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>44.535</v>
       </c>
       <c r="F108" t="n">
-        <v>97.44258000000001</v>
+        <v>97442.58</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>40.935</v>
       </c>
       <c r="F109" t="n">
-        <v>89.40204</v>
+        <v>89402.03999999999</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>42.66</v>
       </c>
       <c r="F110" t="n">
-        <v>93.34008</v>
+        <v>93340.08</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>43.41</v>
       </c>
       <c r="F111" t="n">
-        <v>94.80744</v>
+        <v>94807.44</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>42.93</v>
       </c>
       <c r="F112" t="n">
-        <v>94.10256000000001</v>
+        <v>94102.56000000001</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>43.44</v>
       </c>
       <c r="F113" t="n">
-        <v>95.22048000000001</v>
+        <v>95220.48000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>46.65</v>
       </c>
       <c r="F114" t="n">
-        <v>102.2568</v>
+        <v>102256.8</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>44.985</v>
       </c>
       <c r="F115" t="n">
-        <v>98.24724000000001</v>
+        <v>98247.24000000001</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>15.495</v>
       </c>
       <c r="F116" t="n">
-        <v>12.27204</v>
+        <v>12272.04</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>42.98999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>94.23407999999999</v>
+        <v>94234.07999999999</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>41.52</v>
       </c>
       <c r="F118" t="n">
-        <v>89.35104</v>
+        <v>89351.03999999999</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>45.105</v>
       </c>
       <c r="F119" t="n">
-        <v>99.05058</v>
+        <v>99050.58</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>45.78</v>
       </c>
       <c r="F120" t="n">
-        <v>100.34976</v>
+        <v>100349.76</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>44.025</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0961506</v>
+        <v>96.1506</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>45.39</v>
       </c>
       <c r="F122" t="n">
-        <v>0.09931332000000001</v>
+        <v>99.31332</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>46.755</v>
       </c>
       <c r="F123" t="n">
-        <v>0.10211292</v>
+        <v>102.11292</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>47.955</v>
       </c>
       <c r="F124" t="n">
-        <v>0.10530918</v>
+        <v>105.30918</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>45</v>
       </c>
       <c r="F125" t="n">
-        <v>0.09810000000000001</v>
+        <v>98.10000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>46.725</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1020474</v>
+        <v>102.0474</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>43.755</v>
       </c>
       <c r="F127" t="n">
-        <v>0.09573594000000001</v>
+        <v>95.73594</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>40.455</v>
       </c>
       <c r="F128" t="n">
-        <v>0.08835372000000001</v>
+        <v>88.35372000000001</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>40.62</v>
       </c>
       <c r="F129" t="n">
-        <v>0.08887655999999999</v>
+        <v>88.87656</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>41.985</v>
       </c>
       <c r="F130" t="n">
-        <v>0.09186318</v>
+        <v>91.86318</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>40.92</v>
       </c>
       <c r="F131" t="n">
-        <v>0.08953296000000002</v>
+        <v>89.53296000000002</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>48.885</v>
       </c>
       <c r="F132" t="n">
-        <v>0.10735146</v>
+        <v>107.35146</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>46.73999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>0.10245408</v>
+        <v>102.45408</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>45.465</v>
       </c>
       <c r="F134" t="n">
-        <v>0.09965927999999999</v>
+        <v>99.65928</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>45.69</v>
       </c>
       <c r="F135" t="n">
-        <v>0.10015248</v>
+        <v>100.15248</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>43.89</v>
       </c>
       <c r="F136" t="n">
-        <v>0.09620688000000001</v>
+        <v>96.20688000000001</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>43.68</v>
       </c>
       <c r="F137" t="n">
-        <v>0.09539712</v>
+        <v>95.39712</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>43.665</v>
       </c>
       <c r="F138" t="n">
-        <v>0.09553902</v>
+        <v>95.53902000000001</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>42.42</v>
       </c>
       <c r="F139" t="n">
-        <v>0.09281496000000002</v>
+        <v>92.81496000000001</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>43.65</v>
       </c>
       <c r="F140" t="n">
-        <v>0.09585540000000001</v>
+        <v>95.8554</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>38.145</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08330868</v>
+        <v>83.30868</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>41.715</v>
       </c>
       <c r="F142" t="n">
-        <v>0.09127241999999999</v>
+        <v>91.27242</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>41.565</v>
       </c>
       <c r="F143" t="n">
-        <v>0.09094422000000001</v>
+        <v>90.94422</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>37.845</v>
       </c>
       <c r="F144" t="n">
-        <v>0.08265348</v>
+        <v>82.65348</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>33.48</v>
       </c>
       <c r="F145" t="n">
-        <v>0.07271856</v>
+        <v>72.71856</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>35.85</v>
       </c>
       <c r="F146" t="n">
-        <v>0.07858320000000001</v>
+        <v>78.58320000000001</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>34.335</v>
       </c>
       <c r="F147" t="n">
-        <v>0.07498764000000001</v>
+        <v>74.98764000000001</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>37.215</v>
       </c>
       <c r="F148" t="n">
-        <v>0.08127756</v>
+        <v>81.27755999999999</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>34.335</v>
       </c>
       <c r="F149" t="n">
-        <v>0.07498764000000001</v>
+        <v>74.98764000000001</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>35.535</v>
       </c>
       <c r="F150" t="n">
-        <v>0.07760844</v>
+        <v>77.60844</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>34.335</v>
       </c>
       <c r="F151" t="n">
-        <v>0.07471296000000001</v>
+        <v>74.71296000000001</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>32.73</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0713514</v>
+        <v>71.3514</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>30.555</v>
       </c>
       <c r="F153" t="n">
-        <v>0.06660990000000001</v>
+        <v>66.60990000000001</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>28.605</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06247332000000001</v>
+        <v>62.47332000000002</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>26.94</v>
       </c>
       <c r="F155" t="n">
-        <v>0.05840592</v>
+        <v>58.40592</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>24.705</v>
       </c>
       <c r="F156" t="n">
-        <v>0.05365926</v>
+        <v>53.65926</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>24.495</v>
       </c>
       <c r="F157" t="n">
-        <v>0.05359506</v>
+        <v>53.59506</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>22.725</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0496314</v>
+        <v>49.6314</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>22.545</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04932846</v>
+        <v>49.32846</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>22.44</v>
       </c>
       <c r="F160" t="n">
-        <v>0.04856016</v>
+        <v>48.56016</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>22.59</v>
       </c>
       <c r="F161" t="n">
-        <v>0.04951728</v>
+        <v>49.51728</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>22.635</v>
       </c>
       <c r="F162" t="n">
-        <v>0.04979699999999999</v>
+        <v>49.79699999999999</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>22.29</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04885968</v>
+        <v>48.85968</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>21.705</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0481851</v>
+        <v>48.1851</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>21.57</v>
       </c>
       <c r="F165" t="n">
-        <v>0.04728144</v>
+        <v>47.28144</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>22.17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.04824192</v>
+        <v>48.24192</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>21.87</v>
       </c>
       <c r="F167" t="n">
-        <v>0.04793904</v>
+        <v>47.93904000000001</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>22.17</v>
       </c>
       <c r="F168" t="n">
-        <v>0.04806456</v>
+        <v>48.06456</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>22.425</v>
       </c>
       <c r="F169" t="n">
-        <v>0.04960410000000001</v>
+        <v>49.60410000000001</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>22.365</v>
       </c>
       <c r="F170" t="n">
-        <v>0.04884516</v>
+        <v>48.84516</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>21.855</v>
       </c>
       <c r="F171" t="n">
-        <v>0.04773132</v>
+        <v>47.73132</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>21.24</v>
       </c>
       <c r="F172" t="n">
-        <v>0.04579344</v>
+        <v>45.79344</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>20.91</v>
       </c>
       <c r="F173" t="n">
-        <v>0.04583472</v>
+        <v>45.83472</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>20.595</v>
       </c>
       <c r="F174" t="n">
-        <v>0.04382616</v>
+        <v>43.82616</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>20.535</v>
       </c>
       <c r="F175" t="n">
-        <v>0.04484844</v>
+        <v>44.84844</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>20.52</v>
       </c>
       <c r="F176" t="n">
-        <v>0.045144</v>
+        <v>45.144</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>20.58</v>
       </c>
       <c r="F177" t="n">
-        <v>0.04445279999999999</v>
+        <v>44.45279999999999</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>20.67</v>
       </c>
       <c r="F178" t="n">
-        <v>0.04489524</v>
+        <v>44.89524</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>20.7</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0447948</v>
+        <v>44.7948</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>20.715</v>
       </c>
       <c r="F180" t="n">
-        <v>0.04524156</v>
+        <v>45.24156</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>20.73</v>
       </c>
       <c r="F181" t="n">
-        <v>0.04593768000000001</v>
+        <v>45.93768000000001</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>21.045</v>
       </c>
       <c r="F182" t="n">
-        <v>0.04663572</v>
+        <v>46.63572</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>20.265</v>
       </c>
       <c r="F183" t="n">
-        <v>0.04425876</v>
+        <v>44.25876</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>19.83</v>
       </c>
       <c r="F184" t="n">
-        <v>0.04267416</v>
+        <v>42.67416</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>19.845</v>
       </c>
       <c r="F185" t="n">
-        <v>0.04342086</v>
+        <v>43.42086</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>19.575</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0420471</v>
+        <v>42.0471</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>19.71</v>
       </c>
       <c r="F187" t="n">
-        <v>0.04265244000000001</v>
+        <v>42.65244000000001</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>19.71</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0425736</v>
+        <v>42.57360000000001</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>19.605</v>
       </c>
       <c r="F189" t="n">
-        <v>0.04266048000000001</v>
+        <v>42.66048000000001</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>19.38</v>
       </c>
       <c r="F190" t="n">
-        <v>0.04286856</v>
+        <v>42.86856</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>19.02</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0422244</v>
+        <v>42.2244</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>18.75</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0405</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>18.795</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04074756</v>
+        <v>40.74756</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>18.675</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0406368</v>
+        <v>40.6368</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>18.495</v>
       </c>
       <c r="F195" t="n">
-        <v>0.04039308</v>
+        <v>40.39308</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>18.36</v>
       </c>
       <c r="F196" t="n">
-        <v>0.03907008000000001</v>
+        <v>39.07008</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>18.255</v>
       </c>
       <c r="F197" t="n">
-        <v>0.03964986</v>
+        <v>39.64986</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>18.15</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0397848</v>
+        <v>39.7848</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>17.955</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0398601</v>
+        <v>39.8601</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>17.88</v>
       </c>
       <c r="F200" t="n">
-        <v>0.03854928000000001</v>
+        <v>38.54928000000001</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>17.7</v>
       </c>
       <c r="F201" t="n">
-        <v>0.038232</v>
+        <v>38.232</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>17.85</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0386988</v>
+        <v>38.6988</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>18</v>
       </c>
       <c r="F203" t="n">
-        <v>0.03873600000000001</v>
+        <v>38.736</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>18.345</v>
       </c>
       <c r="F204" t="n">
-        <v>0.03911154</v>
+        <v>39.11154</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>18.45</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0403686</v>
+        <v>40.3686</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>18.465</v>
       </c>
       <c r="F206" t="n">
-        <v>0.04003212</v>
+        <v>40.03212</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>18.435</v>
       </c>
       <c r="F207" t="n">
-        <v>0.03959838</v>
+        <v>39.59838000000001</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>18.33</v>
       </c>
       <c r="F208" t="n">
-        <v>0.04010604</v>
+        <v>40.10604</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>18.195</v>
       </c>
       <c r="F209" t="n">
-        <v>0.03908286</v>
+        <v>39.08286</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>17.985</v>
       </c>
       <c r="F210" t="n">
-        <v>0.03963894</v>
+        <v>39.63894</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>17.655</v>
       </c>
       <c r="F211" t="n">
-        <v>0.03877037999999999</v>
+        <v>38.77038</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>17.385</v>
       </c>
       <c r="F212" t="n">
-        <v>0.03741252</v>
+        <v>37.41252</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>17.025</v>
       </c>
       <c r="F213" t="n">
-        <v>0.037455</v>
+        <v>37.45500000000001</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>16.83</v>
       </c>
       <c r="F214" t="n">
-        <v>0.03642012</v>
+        <v>36.42012</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>16.65</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0361638</v>
+        <v>36.1638</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>16.635</v>
       </c>
       <c r="F216" t="n">
-        <v>0.03606467999999999</v>
+        <v>36.06467999999999</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>16.65</v>
       </c>
       <c r="F217" t="n">
-        <v>0.036297</v>
+        <v>36.297</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>16.665</v>
       </c>
       <c r="F218" t="n">
-        <v>0.03619638</v>
+        <v>36.19638</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>16.665</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0356631</v>
+        <v>35.6631</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>16.575</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0357357</v>
+        <v>35.7357</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>16.35</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0361008</v>
+        <v>36.1008</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>16.185</v>
       </c>
       <c r="F222" t="n">
-        <v>0.03521856</v>
+        <v>35.21856</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>15.975</v>
       </c>
       <c r="F223" t="n">
-        <v>0.03501720000000001</v>
+        <v>35.01720000000001</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>15.735</v>
       </c>
       <c r="F224" t="n">
-        <v>0.03373584</v>
+        <v>33.73584</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>15.525</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0332235</v>
+        <v>33.2235</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>15.27</v>
       </c>
       <c r="F226" t="n">
-        <v>0.03322752</v>
+        <v>33.22752000000001</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>15.03</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0327654</v>
+        <v>32.7654</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>14.835</v>
       </c>
       <c r="F228" t="n">
-        <v>0.03162822</v>
+        <v>31.62822</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>14.655</v>
       </c>
       <c r="F229" t="n">
-        <v>0.03171342</v>
+        <v>31.71342</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>14.415</v>
       </c>
       <c r="F230" t="n">
-        <v>0.03182832</v>
+        <v>31.82832</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>14.19</v>
       </c>
       <c r="F231" t="n">
-        <v>0.03070716</v>
+        <v>30.70716</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>13.935</v>
       </c>
       <c r="F232" t="n">
-        <v>0.03043404</v>
+        <v>30.43404</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>13.665</v>
       </c>
       <c r="F233" t="n">
-        <v>0.02968038</v>
+        <v>29.68038</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>13.41</v>
       </c>
       <c r="F234" t="n">
-        <v>0.02837556</v>
+        <v>28.37556</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>13.23</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0283122</v>
+        <v>28.3122</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>13.05</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0282402</v>
+        <v>28.2402</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>12.87</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0277992</v>
+        <v>27.7992</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>12.6</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0273168</v>
+        <v>27.3168</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>12.585</v>
       </c>
       <c r="F239" t="n">
-        <v>0.02698224</v>
+        <v>26.98224</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>12.6</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0274176</v>
+        <v>27.4176</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>12.57</v>
       </c>
       <c r="F241" t="n">
-        <v>0.02720148</v>
+        <v>27.20148</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>12.48</v>
       </c>
       <c r="F242" t="n">
-        <v>0.02780544</v>
+        <v>27.80544</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>12.375</v>
       </c>
       <c r="F243" t="n">
-        <v>0.026631</v>
+        <v>26.631</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>12.24</v>
       </c>
       <c r="F244" t="n">
-        <v>0.026928</v>
+        <v>26.928</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>12.135</v>
       </c>
       <c r="F245" t="n">
-        <v>0.02611452</v>
+        <v>26.11452</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>11.985</v>
       </c>
       <c r="F246" t="n">
-        <v>0.02583966</v>
+        <v>25.83966</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>11.895</v>
       </c>
       <c r="F247" t="n">
-        <v>0.02559804</v>
+        <v>25.59804</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>11.655</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0254079</v>
+        <v>25.4079</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>11.385</v>
       </c>
       <c r="F249" t="n">
-        <v>0.02454606</v>
+        <v>24.54606</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>11.25</v>
       </c>
       <c r="F250" t="n">
-        <v>0.02502</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>11.07</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0241326</v>
+        <v>24.1326</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>10.875</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0236205</v>
+        <v>23.6205</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>10.815</v>
       </c>
       <c r="F253" t="n">
-        <v>0.02361996</v>
+        <v>23.61996</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>10.755</v>
       </c>
       <c r="F254" t="n">
-        <v>0.02396214</v>
+        <v>23.96214</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>10.755</v>
       </c>
       <c r="F255" t="n">
-        <v>0.02340288</v>
+        <v>23.40288</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>10.8</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0238464</v>
+        <v>23.8464</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>10.845</v>
       </c>
       <c r="F257" t="n">
-        <v>0.02312154</v>
+        <v>23.12154</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>10.875</v>
       </c>
       <c r="F258" t="n">
-        <v>0.023751</v>
+        <v>23.751</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>10.83</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0236094</v>
+        <v>23.6094</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>10.89</v>
       </c>
       <c r="F260" t="n">
-        <v>0.02404512</v>
+        <v>24.04512</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>10.92</v>
       </c>
       <c r="F261" t="n">
-        <v>0.02376192</v>
+        <v>23.76192</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>11.04</v>
       </c>
       <c r="F262" t="n">
-        <v>0.024288</v>
+        <v>24.288</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>11.175</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0244062</v>
+        <v>24.4062</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>11.28</v>
       </c>
       <c r="F264" t="n">
-        <v>0.024816</v>
+        <v>24.816</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>11.385</v>
       </c>
       <c r="F265" t="n">
-        <v>0.02445498</v>
+        <v>24.45498</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>11.445</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0249501</v>
+        <v>24.9501</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>11.505</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0250809</v>
+        <v>25.0809</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>11.595</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0252771</v>
+        <v>25.2771</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>11.7</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0256464</v>
+        <v>25.6464</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>11.805</v>
       </c>
       <c r="F270" t="n">
-        <v>0.02564046</v>
+        <v>25.64046</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>11.88</v>
       </c>
       <c r="F271" t="n">
-        <v>0.02585088</v>
+        <v>25.85088</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>12.03</v>
       </c>
       <c r="F272" t="n">
-        <v>0.02636976</v>
+        <v>26.36976</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>12.18</v>
       </c>
       <c r="F273" t="n">
-        <v>0.02684472</v>
+        <v>26.84472</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>12.225</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0267972</v>
+        <v>26.7972</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>12.21</v>
       </c>
       <c r="F275" t="n">
-        <v>0.02652012</v>
+        <v>26.52012</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>12.3</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0268632</v>
+        <v>26.8632</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>12.33</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0268794</v>
+        <v>26.8794</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>12.315</v>
       </c>
       <c r="F278" t="n">
-        <v>0.02689596</v>
+        <v>26.89596</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>12.315</v>
       </c>
       <c r="F279" t="n">
-        <v>0.02699448</v>
+        <v>26.99448</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>12.36</v>
       </c>
       <c r="F280" t="n">
-        <v>0.02763696</v>
+        <v>27.63696</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>12.465</v>
       </c>
       <c r="F281" t="n">
-        <v>0.027423</v>
+        <v>27.423</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>12.54</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0278388</v>
+        <v>27.8388</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>12.6</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0268632</v>
+        <v>26.8632</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>12.66</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0273456</v>
+        <v>27.3456</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>12.72</v>
       </c>
       <c r="F285" t="n">
-        <v>0.02701728</v>
+        <v>27.01728</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>12.81</v>
       </c>
       <c r="F286" t="n">
-        <v>0.02797704</v>
+        <v>27.97704</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>12.93</v>
       </c>
       <c r="F287" t="n">
-        <v>0.02829084</v>
+        <v>28.29084</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>13.065</v>
       </c>
       <c r="F288" t="n">
-        <v>0.02827266</v>
+        <v>28.27266</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>13.11</v>
       </c>
       <c r="F289" t="n">
-        <v>0.02842248</v>
+        <v>28.42248</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>13.125</v>
       </c>
       <c r="F290" t="n">
-        <v>0.028245</v>
+        <v>28.245</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>13.155</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0284148</v>
+        <v>28.4148</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>13.2</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0286704</v>
+        <v>28.6704</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>13.17</v>
       </c>
       <c r="F293" t="n">
-        <v>0.02855256</v>
+        <v>28.55256</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>13.155</v>
       </c>
       <c r="F294" t="n">
-        <v>0.02873052</v>
+        <v>28.73052</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>13.065</v>
       </c>
       <c r="F295" t="n">
-        <v>0.02863848</v>
+        <v>28.63848</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>12.96</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0277344</v>
+        <v>27.7344</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>12.855</v>
       </c>
       <c r="F297" t="n">
-        <v>0.02761254</v>
+        <v>27.61254</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>12.795</v>
       </c>
       <c r="F298" t="n">
-        <v>0.02794428</v>
+        <v>27.94428</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>12.69</v>
       </c>
       <c r="F299" t="n">
-        <v>0.02730888</v>
+        <v>27.30888</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>12.495</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0267393</v>
+        <v>26.7393</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>12.225</v>
       </c>
       <c r="F301" t="n">
-        <v>0.026406</v>
+        <v>26.406</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>11.955</v>
       </c>
       <c r="F302" t="n">
-        <v>0.0260619</v>
+        <v>26.0619</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>11.685</v>
       </c>
       <c r="F303" t="n">
-        <v>0.02580048</v>
+        <v>25.80048</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>11.4</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0252168</v>
+        <v>25.2168</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>11.175</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0239592</v>
+        <v>23.9592</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>10.995</v>
       </c>
       <c r="F306" t="n">
-        <v>0.02383716</v>
+        <v>23.83716</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>10.86</v>
       </c>
       <c r="F307" t="n">
-        <v>0.02376168</v>
+        <v>23.76168</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>10.755</v>
       </c>
       <c r="F308" t="n">
-        <v>0.02327382</v>
+        <v>23.27382</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>10.605</v>
       </c>
       <c r="F309" t="n">
-        <v>0.02341584</v>
+        <v>23.41584</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>10.515</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0229227</v>
+        <v>22.9227</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>10.41</v>
       </c>
       <c r="F311" t="n">
-        <v>0.02277708</v>
+        <v>22.77708</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>10.485</v>
       </c>
       <c r="F312" t="n">
-        <v>0.02331864</v>
+        <v>23.31864</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>10.275</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0224406</v>
+        <v>22.4406</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>10.275</v>
       </c>
       <c r="F314" t="n">
-        <v>0.0223584</v>
+        <v>22.3584</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>10.26</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0221616</v>
+        <v>22.1616</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>10.275</v>
       </c>
       <c r="F316" t="n">
-        <v>0.0228105</v>
+        <v>22.8105</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>10.32</v>
       </c>
       <c r="F317" t="n">
-        <v>0.02245632</v>
+        <v>22.45632</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>10.32</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0220848</v>
+        <v>22.0848</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>10.35</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0228528</v>
+        <v>22.8528</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>10.41</v>
       </c>
       <c r="F320" t="n">
-        <v>0.02265216</v>
+        <v>22.65216</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>10.455</v>
       </c>
       <c r="F321" t="n">
-        <v>0.02291736</v>
+        <v>22.91736</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>10.485</v>
       </c>
       <c r="F322" t="n">
-        <v>0.02268954</v>
+        <v>22.68954</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>10.5</v>
       </c>
       <c r="F323" t="n">
-        <v>0.022848</v>
+        <v>22.848</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>10.485</v>
       </c>
       <c r="F324" t="n">
-        <v>0.02319282</v>
+        <v>23.19282</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>10.425</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0220176</v>
+        <v>22.0176</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>10.47</v>
       </c>
       <c r="F326" t="n">
-        <v>0.023034</v>
+        <v>23.034</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>10.305</v>
       </c>
       <c r="F327" t="n">
-        <v>0.0220527</v>
+        <v>22.0527</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>10.245</v>
       </c>
       <c r="F328" t="n">
-        <v>0.02221116</v>
+        <v>22.21116</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>10.08</v>
       </c>
       <c r="F329" t="n">
-        <v>0.02213568</v>
+        <v>22.13568</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>9.99</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0211788</v>
+        <v>21.1788</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>9.885</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0213516</v>
+        <v>21.3516</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>9.795</v>
       </c>
       <c r="F332" t="n">
-        <v>0.02143146</v>
+        <v>21.43146</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>9.719999999999999</v>
       </c>
       <c r="F333" t="n">
-        <v>0.02095632</v>
+        <v>20.95632</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>9.674999999999999</v>
       </c>
       <c r="F334" t="n">
-        <v>0.020898</v>
+        <v>20.898</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>9.6</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0210048</v>
+        <v>21.0048</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="F336" t="n">
-        <v>0.02056824</v>
+        <v>20.56824</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="F337" t="n">
-        <v>0.020412</v>
+        <v>20.412</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="F338" t="n">
-        <v>0.02070432</v>
+        <v>20.70432</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>9.254999999999999</v>
       </c>
       <c r="F339" t="n">
-        <v>0.02039802</v>
+        <v>20.39802</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>9.15</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0196908</v>
+        <v>19.6908</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>0.019512</v>
+        <v>19.512</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>8.865</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0200349</v>
+        <v>20.0349</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>8.715</v>
       </c>
       <c r="F343" t="n">
-        <v>0.01878954</v>
+        <v>18.78954</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>8.549999999999999</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0180918</v>
+        <v>18.0918</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>8.414999999999999</v>
       </c>
       <c r="F345" t="n">
-        <v>0.01824372</v>
+        <v>18.24372</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>8.295</v>
       </c>
       <c r="F346" t="n">
-        <v>0.01804992</v>
+        <v>18.04992</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>8.174999999999999</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0180177</v>
+        <v>18.0177</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F348" t="n">
-        <v>0.01759332</v>
+        <v>17.59332</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>8.1</v>
       </c>
       <c r="F349" t="n">
-        <v>0.0176904</v>
+        <v>17.6904</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>8.1</v>
       </c>
       <c r="F350" t="n">
-        <v>0.0175932</v>
+        <v>17.5932</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>8.145</v>
       </c>
       <c r="F351" t="n">
-        <v>0.01729998</v>
+        <v>17.29998</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>8.19</v>
       </c>
       <c r="F352" t="n">
-        <v>0.01772316</v>
+        <v>17.72316</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="F353" t="n">
-        <v>0.01785384</v>
+        <v>17.85384</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>8.25</v>
       </c>
       <c r="F354" t="n">
-        <v>0.017424</v>
+        <v>17.424</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>8.174999999999999</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0177234</v>
+        <v>17.7234</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>8.01</v>
       </c>
       <c r="F356" t="n">
-        <v>0.01752588</v>
+        <v>17.52588</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>7.83</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0170694</v>
+        <v>17.0694</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>7.649999999999999</v>
       </c>
       <c r="F358" t="n">
-        <v>0.0167994</v>
+        <v>16.7994</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>7.515</v>
       </c>
       <c r="F359" t="n">
-        <v>0.01632258</v>
+        <v>16.32258</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>7.38</v>
       </c>
       <c r="F360" t="n">
-        <v>0.016236</v>
+        <v>16.236</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>7.305</v>
       </c>
       <c r="F361" t="n">
-        <v>0.01574958</v>
+        <v>15.74958</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>7.215</v>
       </c>
       <c r="F362" t="n">
-        <v>0.01584414</v>
+        <v>15.84414</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>7.185</v>
       </c>
       <c r="F363" t="n">
-        <v>0.0152322</v>
+        <v>15.2322</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="F364" t="n">
-        <v>0.01538604</v>
+        <v>15.38604</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>7.05</v>
       </c>
       <c r="F365" t="n">
-        <v>0.015369</v>
+        <v>15.369</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>7.02</v>
       </c>
       <c r="F366" t="n">
-        <v>0.01519128</v>
+        <v>15.19128</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>6.975</v>
       </c>
       <c r="F367" t="n">
-        <v>0.0154008</v>
+        <v>15.4008</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>6.96</v>
       </c>
       <c r="F368" t="n">
-        <v>0.01483872</v>
+        <v>14.83872</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>6.93</v>
       </c>
       <c r="F369" t="n">
-        <v>0.0148302</v>
+        <v>14.8302</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>6.915</v>
       </c>
       <c r="F370" t="n">
-        <v>0.01490874</v>
+        <v>14.90874</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>6.915</v>
       </c>
       <c r="F371" t="n">
-        <v>0.01532364</v>
+        <v>15.32364</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>6.915</v>
       </c>
       <c r="F372" t="n">
-        <v>0.01496406</v>
+        <v>14.96406</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>6.915</v>
       </c>
       <c r="F373" t="n">
-        <v>0.01488108</v>
+        <v>14.88108</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>6.93</v>
       </c>
       <c r="F374" t="n">
-        <v>0.01519056</v>
+        <v>15.19056</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>6.93</v>
       </c>
       <c r="F375" t="n">
-        <v>0.0151074</v>
+        <v>15.1074</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>7.02</v>
       </c>
       <c r="F376" t="n">
-        <v>0.01561248</v>
+        <v>15.61248</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>6.87</v>
       </c>
       <c r="F377" t="n">
-        <v>0.01475676</v>
+        <v>14.75676</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>6.795</v>
       </c>
       <c r="F378" t="n">
-        <v>0.0146772</v>
+        <v>14.6772</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>6.72</v>
       </c>
       <c r="F379" t="n">
-        <v>0.01443456</v>
+        <v>14.43456</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>6.675</v>
       </c>
       <c r="F380" t="n">
-        <v>0.014151</v>
+        <v>14.151</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>6.585</v>
       </c>
       <c r="F381" t="n">
-        <v>0.01398654</v>
+        <v>13.98654</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>6.524999999999999</v>
       </c>
       <c r="F382" t="n">
-        <v>0.0145116</v>
+        <v>14.5116</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>6.48</v>
       </c>
       <c r="F383" t="n">
-        <v>0.01402272</v>
+        <v>14.02272</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>6.435</v>
       </c>
       <c r="F384" t="n">
-        <v>0.01361646</v>
+        <v>13.61646</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>6.39</v>
       </c>
       <c r="F385" t="n">
-        <v>0.01416024</v>
+        <v>14.16024</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>6.359999999999999</v>
       </c>
       <c r="F386" t="n">
-        <v>0.01378848</v>
+        <v>13.78848</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>6.33</v>
       </c>
       <c r="F387" t="n">
-        <v>0.01407792</v>
+        <v>14.07792</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>6.315</v>
       </c>
       <c r="F388" t="n">
-        <v>0.01341306</v>
+        <v>13.41306</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>6.27</v>
       </c>
       <c r="F389" t="n">
-        <v>0.01319208</v>
+        <v>13.19208</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>6.24</v>
       </c>
       <c r="F390" t="n">
-        <v>0.01357824</v>
+        <v>13.57824</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>6.24</v>
       </c>
       <c r="F391" t="n">
-        <v>0.01312896</v>
+        <v>13.12896</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>6.194999999999999</v>
       </c>
       <c r="F392" t="n">
-        <v>0.01328208</v>
+        <v>13.28208</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>6.165</v>
       </c>
       <c r="F393" t="n">
-        <v>0.01326708</v>
+        <v>13.26708</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>6.149999999999999</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0133332</v>
+        <v>13.3332</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>6.105</v>
       </c>
       <c r="F395" t="n">
-        <v>0.0130647</v>
+        <v>13.0647</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>6.075</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0130005</v>
+        <v>13.0005</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="F397" t="n">
-        <v>0.013266</v>
+        <v>13.266</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>6</v>
       </c>
       <c r="F398" t="n">
-        <v>0.01272</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>5.91</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0126474</v>
+        <v>12.6474</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>5.805</v>
       </c>
       <c r="F400" t="n">
-        <v>0.01281744</v>
+        <v>12.81744</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>5.685</v>
       </c>
       <c r="F401" t="n">
-        <v>0.01218864</v>
+        <v>12.18864</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>5.55</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0120102</v>
+        <v>12.0102</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>5.415</v>
       </c>
       <c r="F403" t="n">
-        <v>0.01173972</v>
+        <v>11.73972</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>5.265</v>
       </c>
       <c r="F404" t="n">
-        <v>0.01120392</v>
+        <v>11.20392</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>5.145</v>
       </c>
       <c r="F405" t="n">
-        <v>0.01072218</v>
+        <v>10.72218</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F406" t="n">
-        <v>0.0109344</v>
+        <v>10.9344</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>4.905</v>
       </c>
       <c r="F407" t="n">
-        <v>0.01071252</v>
+        <v>10.71252</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>4.815</v>
       </c>
       <c r="F408" t="n">
-        <v>0.01051596</v>
+        <v>10.51596</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>4.755</v>
       </c>
       <c r="F409" t="n">
-        <v>0.0103659</v>
+        <v>10.3659</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>4.665</v>
       </c>
       <c r="F410" t="n">
-        <v>0.01037496</v>
+        <v>10.37496</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>4.62</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0100716</v>
+        <v>10.0716</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>4.53</v>
       </c>
       <c r="F412" t="n">
-        <v>0.01000224</v>
+        <v>10.00224</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>4.47</v>
       </c>
       <c r="F413" t="n">
-        <v>0.00953004</v>
+        <v>9.53004</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>4.44</v>
       </c>
       <c r="F414" t="n">
-        <v>0.009341759999999999</v>
+        <v>9.341759999999999</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>4.425</v>
       </c>
       <c r="F415" t="n">
-        <v>0.009575699999999999</v>
+        <v>9.575699999999999</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>4.425</v>
       </c>
       <c r="F416" t="n">
-        <v>0.009841200000000001</v>
+        <v>9.841200000000001</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>4.425</v>
       </c>
       <c r="F417" t="n">
-        <v>0.009876599999999999</v>
+        <v>9.8766</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>4.425</v>
       </c>
       <c r="F418" t="n">
-        <v>0.009646499999999999</v>
+        <v>9.6465</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>4.455</v>
       </c>
       <c r="F419" t="n">
-        <v>0.009533700000000001</v>
+        <v>9.533700000000001</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>4.47</v>
       </c>
       <c r="F420" t="n">
-        <v>0.009619440000000002</v>
+        <v>9.619440000000001</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>4.5</v>
       </c>
       <c r="F421" t="n">
-        <v>0.009864000000000001</v>
+        <v>9.864000000000001</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>4.515</v>
       </c>
       <c r="F422" t="n">
-        <v>0.00944538</v>
+        <v>9.44538</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>4.53</v>
       </c>
       <c r="F423" t="n">
-        <v>0.00956736</v>
+        <v>9.567360000000001</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>4.53</v>
       </c>
       <c r="F424" t="n">
-        <v>0.009929760000000001</v>
+        <v>9.929760000000002</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>4.545</v>
       </c>
       <c r="F425" t="n">
-        <v>0.00988992</v>
+        <v>9.88992</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>4.56</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0097584</v>
+        <v>9.7584</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>4.575</v>
       </c>
       <c r="F427" t="n">
-        <v>0.0100101</v>
+        <v>10.0101</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>4.575</v>
       </c>
       <c r="F428" t="n">
-        <v>0.0100284</v>
+        <v>10.0284</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>4.545</v>
       </c>
       <c r="F429" t="n">
-        <v>0.01003536</v>
+        <v>10.03536</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>4.56</v>
       </c>
       <c r="F430" t="n">
-        <v>0.00992256</v>
+        <v>9.922560000000001</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>4.53</v>
       </c>
       <c r="F431" t="n">
-        <v>0.009893520000000001</v>
+        <v>9.893520000000001</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>4.515</v>
       </c>
       <c r="F432" t="n">
-        <v>0.01013166</v>
+        <v>10.13166</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>4.484999999999999</v>
       </c>
       <c r="F433" t="n">
-        <v>0.009508199999999998</v>
+        <v>9.508199999999999</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>4.44</v>
       </c>
       <c r="F434" t="n">
-        <v>0.009767999999999999</v>
+        <v>9.767999999999999</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>4.38</v>
       </c>
       <c r="F435" t="n">
-        <v>0.00933816</v>
+        <v>9.33816</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>4.335</v>
       </c>
       <c r="F436" t="n">
-        <v>0.0093636</v>
+        <v>9.3636</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>4.26</v>
       </c>
       <c r="F437" t="n">
-        <v>0.00942312</v>
+        <v>9.423120000000001</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>4.17</v>
       </c>
       <c r="F438" t="n">
-        <v>0.009140640000000002</v>
+        <v>9.140640000000001</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>4.095</v>
       </c>
       <c r="F439" t="n">
-        <v>0.009107279999999999</v>
+        <v>9.107279999999999</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>4.02</v>
       </c>
       <c r="F440" t="n">
-        <v>0.00873144</v>
+        <v>8.731439999999999</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>3.99</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0086982</v>
+        <v>8.6982</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>3.84</v>
       </c>
       <c r="F442" t="n">
-        <v>0.008432640000000002</v>
+        <v>8.432640000000001</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>3.78</v>
       </c>
       <c r="F443" t="n">
-        <v>0.008134560000000001</v>
+        <v>8.13456</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>3.705</v>
       </c>
       <c r="F444" t="n">
-        <v>0.008165820000000001</v>
+        <v>8.16582</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>3.645</v>
       </c>
       <c r="F445" t="n">
-        <v>0.008062740000000002</v>
+        <v>8.062740000000002</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>3.57</v>
       </c>
       <c r="F446" t="n">
-        <v>0.007825440000000001</v>
+        <v>7.825440000000001</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>3.525</v>
       </c>
       <c r="F447" t="n">
-        <v>0.007698600000000001</v>
+        <v>7.698600000000001</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>3.495</v>
       </c>
       <c r="F448" t="n">
-        <v>0.00763308</v>
+        <v>7.633080000000001</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>3.45</v>
       </c>
       <c r="F449" t="n">
-        <v>0.007452</v>
+        <v>7.452</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>3.42</v>
       </c>
       <c r="F450" t="n">
-        <v>0.007428240000000001</v>
+        <v>7.428240000000001</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>3.375</v>
       </c>
       <c r="F451" t="n">
-        <v>0.007330500000000001</v>
+        <v>7.330500000000001</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>3.33</v>
       </c>
       <c r="F452" t="n">
-        <v>0.007445880000000001</v>
+        <v>7.445880000000001</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>3.285</v>
       </c>
       <c r="F453" t="n">
-        <v>0.00718758</v>
+        <v>7.18758</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>3.24</v>
       </c>
       <c r="F454" t="n">
-        <v>0.0070632</v>
+        <v>7.0632</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>3.18</v>
       </c>
       <c r="F455" t="n">
-        <v>0.00698328</v>
+        <v>6.98328</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>3.12</v>
       </c>
       <c r="F456" t="n">
-        <v>0.006826560000000001</v>
+        <v>6.826560000000001</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>3.06</v>
       </c>
       <c r="F457" t="n">
-        <v>0.006670800000000001</v>
+        <v>6.670800000000001</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>2.985</v>
       </c>
       <c r="F458" t="n">
-        <v>0.006602820000000001</v>
+        <v>6.602820000000001</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>2.91</v>
       </c>
       <c r="F459" t="n">
-        <v>0.00635544</v>
+        <v>6.355440000000001</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>2.85</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0064638</v>
+        <v>6.4638</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>2.775</v>
       </c>
       <c r="F461" t="n">
-        <v>0.0060273</v>
+        <v>6.0273</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>2.715</v>
       </c>
       <c r="F462" t="n">
-        <v>0.00590784</v>
+        <v>5.90784</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>2.64</v>
       </c>
       <c r="F463" t="n">
-        <v>0.00577632</v>
+        <v>5.77632</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>2.58</v>
       </c>
       <c r="F464" t="n">
-        <v>0.00555216</v>
+        <v>5.552160000000001</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>2.52</v>
       </c>
       <c r="F465" t="n">
-        <v>0.005644800000000001</v>
+        <v>5.644800000000001</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>2.475</v>
       </c>
       <c r="F466" t="n">
-        <v>0.0054549</v>
+        <v>5.4549</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>2.415</v>
       </c>
       <c r="F467" t="n">
-        <v>0.005467560000000001</v>
+        <v>5.467560000000001</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>2.37</v>
       </c>
       <c r="F468" t="n">
-        <v>0.00517608</v>
+        <v>5.17608</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>2.34</v>
       </c>
       <c r="F469" t="n">
-        <v>0.00515736</v>
+        <v>5.15736</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>2.295</v>
       </c>
       <c r="F470" t="n">
-        <v>0.00514998</v>
+        <v>5.14998</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>2.265</v>
       </c>
       <c r="F471" t="n">
-        <v>0.005055480000000001</v>
+        <v>5.055480000000001</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>2.22</v>
       </c>
       <c r="F472" t="n">
-        <v>0.004990560000000001</v>
+        <v>4.99056</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>2.205</v>
       </c>
       <c r="F473" t="n">
-        <v>0.005027400000000001</v>
+        <v>5.027400000000001</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>2.19</v>
       </c>
       <c r="F474" t="n">
-        <v>0.004818</v>
+        <v>4.818000000000001</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>2.145</v>
       </c>
       <c r="F475" t="n">
-        <v>0.00486486</v>
+        <v>4.86486</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>2.145</v>
       </c>
       <c r="F476" t="n">
-        <v>0.00474474</v>
+        <v>4.74474</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>2.115</v>
       </c>
       <c r="F477" t="n">
-        <v>0.00466146</v>
+        <v>4.66146</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>2.1</v>
       </c>
       <c r="F478" t="n">
-        <v>0.004628400000000001</v>
+        <v>4.628400000000001</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>2.1</v>
       </c>
       <c r="F479" t="n">
-        <v>0.0046116</v>
+        <v>4.6116</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>2.07</v>
       </c>
       <c r="F480" t="n">
-        <v>0.0047196</v>
+        <v>4.7196</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>2.07</v>
       </c>
       <c r="F481" t="n">
-        <v>0.004578840000000001</v>
+        <v>4.57884</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>2.055</v>
       </c>
       <c r="F482" t="n">
-        <v>0.00458676</v>
+        <v>4.58676</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>2.055</v>
       </c>
       <c r="F483" t="n">
-        <v>0.00452922</v>
+        <v>4.52922</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>2.025</v>
       </c>
       <c r="F484" t="n">
-        <v>0.004503600000000001</v>
+        <v>4.5036</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>2.025</v>
       </c>
       <c r="F485" t="n">
-        <v>0.0043902</v>
+        <v>4.3902</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>1.98</v>
       </c>
       <c r="F486" t="n">
-        <v>0.00434016</v>
+        <v>4.34016</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>1.95</v>
       </c>
       <c r="F487" t="n">
-        <v>0.004360200000000001</v>
+        <v>4.360200000000001</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>1.935</v>
       </c>
       <c r="F488" t="n">
-        <v>0.00421056</v>
+        <v>4.21056</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>1.875</v>
       </c>
       <c r="F489" t="n">
-        <v>0.00414</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>1.845</v>
       </c>
       <c r="F490" t="n">
-        <v>0.00404424</v>
+        <v>4.04424</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>1.8</v>
       </c>
       <c r="F491" t="n">
-        <v>0.003852</v>
+        <v>3.852</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>1.755</v>
       </c>
       <c r="F492" t="n">
-        <v>0.00388206</v>
+        <v>3.88206</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>1.725</v>
       </c>
       <c r="F493" t="n">
-        <v>0.0038916</v>
+        <v>3.8916</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>1.665</v>
       </c>
       <c r="F494" t="n">
-        <v>0.003649680000000001</v>
+        <v>3.649680000000001</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>1.62</v>
       </c>
       <c r="F495" t="n">
-        <v>0.0035964</v>
+        <v>3.5964</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>1.545</v>
       </c>
       <c r="F496" t="n">
-        <v>0.00353496</v>
+        <v>3.53496</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>1.485</v>
       </c>
       <c r="F497" t="n">
-        <v>0.0033561</v>
+        <v>3.3561</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>1.455</v>
       </c>
       <c r="F498" t="n">
-        <v>0.00323592</v>
+        <v>3.23592</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>1.425</v>
       </c>
       <c r="F499" t="n">
-        <v>0.003152100000000001</v>
+        <v>3.152100000000001</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>1.395</v>
       </c>
       <c r="F500" t="n">
-        <v>0.00308016</v>
+        <v>3.08016</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>1.365</v>
       </c>
       <c r="F501" t="n">
-        <v>0.003008460000000001</v>
+        <v>3.008460000000001</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>1.335</v>
       </c>
       <c r="F502" t="n">
-        <v>0.0030438</v>
+        <v>3.0438</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>1.305</v>
       </c>
       <c r="F503" t="n">
-        <v>0.00291276</v>
+        <v>2.91276</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>1.29</v>
       </c>
       <c r="F504" t="n">
-        <v>0.00284832</v>
+        <v>2.84832</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>1.275</v>
       </c>
       <c r="F505" t="n">
-        <v>0.0029121</v>
+        <v>2.9121</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>1.23</v>
       </c>
       <c r="F506" t="n">
-        <v>0.002829</v>
+        <v>2.829</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>1.215</v>
       </c>
       <c r="F507" t="n">
-        <v>0.00268272</v>
+        <v>2.68272</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>1.17</v>
       </c>
       <c r="F508" t="n">
-        <v>0.00263952</v>
+        <v>2.63952</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>1.155</v>
       </c>
       <c r="F509" t="n">
-        <v>0.0025641</v>
+        <v>2.5641</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>1.14</v>
       </c>
       <c r="F510" t="n">
-        <v>0.00253536</v>
+        <v>2.53536</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>1.14</v>
       </c>
       <c r="F511" t="n">
-        <v>0.00249432</v>
+        <v>2.49432</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>1.11</v>
       </c>
       <c r="F512" t="n">
-        <v>0.00250416</v>
+        <v>2.50416</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>1.08</v>
       </c>
       <c r="F513" t="n">
-        <v>0.002445120000000001</v>
+        <v>2.445120000000001</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>1.05</v>
       </c>
       <c r="F514" t="n">
-        <v>0.0023478</v>
+        <v>2.3478</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>1.035</v>
       </c>
       <c r="F515" t="n">
-        <v>0.0023391</v>
+        <v>2.3391</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>1.005</v>
       </c>
       <c r="F516" t="n">
-        <v>0.00219894</v>
+        <v>2.19894</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>0.975</v>
       </c>
       <c r="F517" t="n">
-        <v>0.0021879</v>
+        <v>2.1879</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>0.96</v>
       </c>
       <c r="F518" t="n">
-        <v>0.00212352</v>
+        <v>2.12352</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>0.885</v>
       </c>
       <c r="F519" t="n">
-        <v>0.0020001</v>
+        <v>2.0001</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>0.855</v>
       </c>
       <c r="F520" t="n">
-        <v>0.00197676</v>
+        <v>1.97676</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F521" t="n">
-        <v>0.001863</v>
+        <v>1.863</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>0.78</v>
       </c>
       <c r="F522" t="n">
-        <v>0.00179712</v>
+        <v>1.79712</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>0.735</v>
       </c>
       <c r="F523" t="n">
-        <v>0.00181398</v>
+        <v>1.81398</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>0.72</v>
       </c>
       <c r="F524" t="n">
-        <v>0.00176832</v>
+        <v>1.76832</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>0.705</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0016215</v>
+        <v>1.6215</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0014628</v>
+        <v>1.4628</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F527" t="n">
-        <v>0.0013365</v>
+        <v>1.3365</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0012636</v>
+        <v>1.2636</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F529" t="n">
-        <v>0.0011748</v>
+        <v>1.1748</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F530" t="n">
-        <v>0.00112992</v>
+        <v>1.12992</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>0.63</v>
       </c>
       <c r="F531" t="n">
-        <v>0.00104076</v>
+        <v>1.04076</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>0.615</v>
       </c>
       <c r="F532" t="n">
-        <v>0.00097908</v>
+        <v>0.9790800000000001</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>0.585</v>
       </c>
       <c r="F533" t="n">
-        <v>0.00089622</v>
+        <v>0.89622</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>0.57</v>
       </c>
       <c r="F534" t="n">
-        <v>0.0008504399999999999</v>
+        <v>0.85044</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>0.525</v>
       </c>
       <c r="F535" t="n">
-        <v>0.0007476000000000001</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>0.48</v>
       </c>
       <c r="F536" t="n">
-        <v>0.0006528</v>
+        <v>0.6528</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>0.465</v>
       </c>
       <c r="F537" t="n">
-        <v>0.0006044999999999999</v>
+        <v>0.6044999999999999</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>0.465</v>
       </c>
       <c r="F538" t="n">
-        <v>0.0005803199999999999</v>
+        <v>0.5803199999999999</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>0.435</v>
       </c>
       <c r="F539" t="n">
-        <v>0.000522</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>0.42</v>
       </c>
       <c r="F540" t="n">
-        <v>0.0004872</v>
+        <v>0.4872</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>0.405</v>
       </c>
       <c r="F541" t="n">
-        <v>0.00045522</v>
+        <v>0.45522</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>0.39</v>
       </c>
       <c r="F542" t="n">
-        <v>0.00042276</v>
+        <v>0.42276</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>0.375</v>
       </c>
       <c r="F543" t="n">
-        <v>0.000393</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>0.33</v>
       </c>
       <c r="F544" t="n">
-        <v>0.00033132</v>
+        <v>0.33132</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>0.3</v>
       </c>
       <c r="F545" t="n">
-        <v>0.0002904</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>0.285</v>
       </c>
       <c r="F546" t="n">
-        <v>0.00026448</v>
+        <v>0.26448</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>0.27</v>
       </c>
       <c r="F547" t="n">
-        <v>0.00024192</v>
+        <v>0.24192</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>0.225</v>
       </c>
       <c r="F548" t="n">
-        <v>0.0001953</v>
+        <v>0.1953</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>0.21</v>
       </c>
       <c r="F549" t="n">
-        <v>0.00017724</v>
+        <v>0.17724</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>0.18</v>
       </c>
       <c r="F550" t="n">
-        <v>0.0001476</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>0.18</v>
       </c>
       <c r="F551" t="n">
-        <v>0.000144</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>0.18</v>
       </c>
       <c r="F552" t="n">
-        <v>0.0001404</v>
+        <v>0.1404</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>0.165</v>
       </c>
       <c r="F553" t="n">
-        <v>0.0001254</v>
+        <v>0.1254</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>0.15</v>
       </c>
       <c r="F554" t="n">
-        <v>0.000111</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>0.135</v>
       </c>
       <c r="F555" t="n">
-        <v>9.72e-05</v>
+        <v>0.09720000000000001</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>0.135</v>
       </c>
       <c r="F556" t="n">
-        <v>9.450000000000002e-05</v>
+        <v>0.09450000000000001</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>0.12</v>
       </c>
       <c r="F557" t="n">
-        <v>8.208e-05</v>
+        <v>0.08208</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>0.12</v>
       </c>
       <c r="F558" t="n">
-        <v>7.968e-05</v>
+        <v>0.07968</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>0.12</v>
       </c>
       <c r="F559" t="n">
-        <v>7.776e-05</v>
+        <v>0.07776</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>0.12</v>
       </c>
       <c r="F560" t="n">
-        <v>7.584000000000001e-05</v>
+        <v>0.07584</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>0.12</v>
       </c>
       <c r="F561" t="n">
-        <v>7.343999999999999e-05</v>
+        <v>0.07343999999999999</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>0.12</v>
       </c>
       <c r="F562" t="n">
-        <v>7.152000000000001e-05</v>
+        <v>0.07152</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>0.12</v>
       </c>
       <c r="F563" t="n">
-        <v>6.912e-05</v>
+        <v>0.06912</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>0.105</v>
       </c>
       <c r="F564" t="n">
-        <v>5.880000000000001e-05</v>
+        <v>0.05880000000000001</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>0.09</v>
       </c>
       <c r="F565" t="n">
-        <v>4.896000000000001e-05</v>
+        <v>0.04896000000000001</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>0.09</v>
       </c>
       <c r="F566" t="n">
-        <v>4.752e-05</v>
+        <v>0.04752</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>0.09</v>
       </c>
       <c r="F567" t="n">
-        <v>4.608e-05</v>
+        <v>0.04608</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>0.09</v>
       </c>
       <c r="F568" t="n">
-        <v>4.5e-05</v>
+        <v>0.04500000000000001</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>0.075</v>
       </c>
       <c r="F569" t="n">
-        <v>3.66e-05</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>0.075</v>
       </c>
       <c r="F570" t="n">
-        <v>3.66e-05</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>0.075</v>
       </c>
       <c r="F571" t="n">
-        <v>3.51e-05</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>0.06</v>
       </c>
       <c r="F572" t="n">
-        <v>2.76e-05</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>0.045</v>
       </c>
       <c r="F573" t="n">
-        <v>2.016e-05</v>
+        <v>0.02016</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>0.045</v>
       </c>
       <c r="F574" t="n">
-        <v>1.98e-05</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>0.03</v>
       </c>
       <c r="F575" t="n">
-        <v>1.296e-05</v>
+        <v>0.01296</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>0.03</v>
       </c>
       <c r="F576" t="n">
-        <v>1.272e-05</v>
+        <v>0.01272</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>0.03</v>
       </c>
       <c r="F577" t="n">
-        <v>1.248e-05</v>
+        <v>0.01248</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>0.03</v>
       </c>
       <c r="F578" t="n">
-        <v>1.224e-05</v>
+        <v>0.01224</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>0.03</v>
       </c>
       <c r="F579" t="n">
-        <v>1.188e-05</v>
+        <v>0.01188</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>0.015</v>
       </c>
       <c r="F580" t="n">
-        <v>5.76e-06</v>
+        <v>0.005759999999999999</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>0.015</v>
       </c>
       <c r="F581" t="n">
-        <v>5.64e-06</v>
+        <v>0.00564</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>0.015</v>
       </c>
       <c r="F582" t="n">
-        <v>5.459999999999999e-06</v>
+        <v>0.00546</v>
       </c>
     </row>
     <row r="583">
